--- a/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>DGDM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,85 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,16 +786,25 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -819,16 +839,25 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -863,8 +892,17 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +966,17 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1019,17 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1072,17 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,16 +1149,19 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1116,8 +1196,17 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1160,8 +1249,17 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1276,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1323,17 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,8 +1429,17 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1354,8 +1482,17 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1588,17 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1486,8 +1641,17 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1530,8 +1694,17 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1906,17 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1959,17 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1794,8 +2012,17 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +2065,17 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1882,57 +2118,75 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2224,11 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2271,17 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2324,17 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,20 +2344,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2099,8 +2377,17 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2110,20 +2397,20 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2143,8 +2430,17 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2154,20 +2450,20 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2187,16 +2483,25 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2231,8 +2536,17 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2589,40 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2319,8 +2642,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2695,17 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,16 +2907,25 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2583,8 +2960,17 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,22 +3008,25 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -2661,24 +3053,33 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
-        <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
-      </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
@@ -2687,13 +3088,13 @@
         <v>800</v>
       </c>
       <c r="J58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
@@ -2705,10 +3106,19 @@
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,52 +3161,70 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
-      </c>
       <c r="H60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>800</v>
+      </c>
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3267,17 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3320,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1000</v>
-      </c>
       <c r="H66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
+        <v>800</v>
+      </c>
+      <c r="S66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-8500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-8400</v>
       </c>
       <c r="O72" s="3">
         <v>-8400</v>
       </c>
       <c r="P72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="I76" s="3">
         <v>-1000</v>
       </c>
       <c r="J76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +4083,75 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3610,8 +4194,17 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4221,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,16 +4533,25 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3936,8 +4586,17 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4766,17 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,13 +5052,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4368,8 +5105,17 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5158,17 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4454,6 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>DGDM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -859,8 +869,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,19 +1178,20 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1247,7 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,20 +1478,23 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,20 +1646,23 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1650,20 +1702,23 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,20 +2038,23 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,20 +2150,23 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,19 +2423,22 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2359,8 +2452,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2386,19 +2479,22 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2412,8 +2508,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2439,19 +2535,22 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -2465,8 +2564,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2492,19 +2591,22 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>100</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2624,8 +2732,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,19 +3039,22 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>100</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3062,27 +3193,30 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -3097,7 +3231,7 @@
         <v>800</v>
       </c>
       <c r="M58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
@@ -3115,10 +3249,13 @@
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,19 +3307,22 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
+      <c r="D60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
@@ -3191,7 +3331,7 @@
         <v>1100</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
@@ -3203,7 +3343,7 @@
         <v>1000</v>
       </c>
       <c r="M60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N60" s="3">
         <v>900</v>
@@ -3212,7 +3352,7 @@
         <v>900</v>
       </c>
       <c r="P60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,19 +3643,22 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
@@ -3509,7 +3667,7 @@
         <v>1100</v>
       </c>
       <c r="I66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
@@ -3521,7 +3679,7 @@
         <v>1000</v>
       </c>
       <c r="M66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N66" s="3">
         <v>900</v>
@@ -3530,7 +3688,7 @@
         <v>900</v>
       </c>
       <c r="P66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,19 +3945,22 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-8800</v>
+      <c r="D72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E72" s="3">
         <v>-8800</v>
       </c>
       <c r="F72" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="G72" s="3">
         <v>-8700</v>
@@ -3795,7 +3969,7 @@
         <v>-8700</v>
       </c>
       <c r="I72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="J72" s="3">
         <v>-8600</v>
@@ -3804,7 +3978,7 @@
         <v>-8600</v>
       </c>
       <c r="L72" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="M72" s="3">
         <v>-8500</v>
@@ -3813,7 +3987,7 @@
         <v>-8500</v>
       </c>
       <c r="O72" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="P72" s="3">
         <v>-8400</v>
@@ -3825,10 +3999,13 @@
         <v>-8400</v>
       </c>
       <c r="S72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,19 +4169,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>0</v>
+      <c r="D76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-1100</v>
@@ -4007,7 +4193,7 @@
         <v>-1100</v>
       </c>
       <c r="I76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="J76" s="3">
         <v>-1000</v>
@@ -4019,7 +4205,7 @@
         <v>-1000</v>
       </c>
       <c r="M76" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="N76" s="3">
         <v>-900</v>
@@ -4028,7 +4214,7 @@
         <v>-900</v>
       </c>
       <c r="P76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,78 +4281,84 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,19 +4756,22 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5002,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,17 +5304,20 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,20 +5416,23 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>DGDM</t>
   </si>
@@ -1184,8 +1184,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1486,8 +1486,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1654,8 +1654,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1710,8 +1710,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2046,8 +2046,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2158,8 +2158,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2319,8 +2319,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2431,8 +2431,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2487,8 +2487,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2543,8 +2543,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2599,8 +2599,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2711,8 +2711,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3047,8 +3047,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3147,8 +3147,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3203,8 +3203,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3262,23 +3262,23 @@
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3315,8 +3315,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -3651,8 +3651,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3953,8 +3953,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-9100</v>
       </c>
       <c r="E72" s="3">
         <v>-8800</v>
@@ -4177,8 +4177,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -4350,8 +4350,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DGDM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>DGDM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,11 +829,11 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,11 +891,11 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,31 +1143,37 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,17 +1241,17 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,17 +1303,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1560,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,17 +1575,17 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,17 +1761,17 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1705,8 +1808,14 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,17 +1823,17 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2180,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,17 +2195,17 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2304,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,17 +2319,17 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,16 +2485,18 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,25 +2605,31 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2455,11 +2640,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2496,11 +2687,11 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2511,11 +2702,11 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2552,11 +2749,11 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2567,11 +2764,11 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2609,10 +2812,10 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,22 +2915,28 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2735,11 +2950,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2762,31 +2977,37 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2941,20 +3180,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3287,19 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3057,10 +3308,10 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3157,16 +3418,16 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3196,15 +3457,21 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3213,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
@@ -3234,10 +3501,10 @@
         <v>800</v>
       </c>
       <c r="N58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
@@ -3252,21 +3519,27 @@
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3280,11 +3553,11 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3310,34 +3583,40 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L60" s="3">
         <v>1000</v>
@@ -3346,19 +3625,19 @@
         <v>1000</v>
       </c>
       <c r="N60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
       </c>
       <c r="Q60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>800</v>
+      </c>
+      <c r="V60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,34 +3955,40 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>1100</v>
       </c>
       <c r="J66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="L66" s="3">
         <v>1000</v>
@@ -3682,19 +3997,19 @@
         <v>1000</v>
       </c>
       <c r="N66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
       <c r="Q66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,52 +4289,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-8700</v>
       </c>
       <c r="I72" s="3">
         <v>-8700</v>
       </c>
       <c r="J72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="K72" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="L72" s="3">
         <v>-8600</v>
       </c>
       <c r="M72" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="N72" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="O72" s="3">
         <v>-8500</v>
       </c>
       <c r="P72" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="R72" s="3">
         <v>-8400</v>
@@ -4002,10 +4349,16 @@
         <v>-8400</v>
       </c>
       <c r="T72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,13 +4537,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -4187,19 +4558,19 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-1100</v>
       </c>
       <c r="J76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="L76" s="3">
         <v>-1000</v>
@@ -4208,19 +4579,19 @@
         <v>-1000</v>
       </c>
       <c r="N76" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="O76" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
       </c>
       <c r="Q76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="R76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="S76" s="3">
         <v>-800</v>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4661,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,17 +4743,17 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,31 +4818,33 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,17 +5201,17 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5276,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5458,25 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5031,11 +5490,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,23 +5792,29 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5431,14 +5934,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
